--- a/TestFiles/sample23/words/word_8.xlsx
+++ b/TestFiles/sample23/words/word_8.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.5298964000000002</v>
+        <v>0.5298963999999984</v>
       </c>
       <c r="B2">
-        <v>0.6260992000000005</v>
+        <v>0.6260991999999987</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.7422036999999992</v>
+        <v>0.7422036999999975</v>
       </c>
       <c r="B3">
-        <v>0.8501311000000005</v>
+        <v>0.8501310999999987</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.9376894000000018</v>
+        <v>0.9376894</v>
       </c>
       <c r="B4">
-        <v>1.034033599999999</v>
+        <v>1.034033599999997</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.154178700000001</v>
+        <v>1.154178699999999</v>
       </c>
       <c r="B5">
-        <v>1.253852700000001</v>
+        <v>1.253852699999999</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
